--- a/data/Q_dataset.xlsx
+++ b/data/Q_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nrk_pavilion\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nrk_pavilion\PycharmProjects\ir_ensemble\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{6F34DD5C-6CD0-496B-8DF5-3709F24A00EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF63C23-05B3-4CA0-B9A7-3D630E8F642F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t>139 151 166 311 370 392 439 440 441 454 461 502 503 505 520 522 526 527 533 593 619 737 742 789 827 835 861 875 891 921 922 1175 1185 1222</t>
   </si>
@@ -648,12 +648,15 @@
   </si>
   <si>
     <t>MAP_win7</t>
+  </si>
+  <si>
+    <t>Map_Set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -1007,10 +1010,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1019,7 +1024,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>200</v>
       </c>
@@ -1032,8 +1037,11 @@
       <c r="D1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1046,8 +1054,11 @@
       <c r="D2">
         <v>0.31891353</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0.1371096</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1060,8 +1071,11 @@
       <c r="D3">
         <v>0.10989256999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>9.3797399999999993E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1074,8 +1088,11 @@
       <c r="D4">
         <v>0.1218202</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>0.11453758999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="D5">
         <v>0.10433352</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>7.6210280000000005E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1102,8 +1122,11 @@
       <c r="D6">
         <v>0.30900219000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>0.25595256999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1116,8 +1139,11 @@
       <c r="D7">
         <v>0.17611087</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>5.2628229999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1130,8 +1156,11 @@
       <c r="D8">
         <v>0.11597514</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>5.013016E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1144,8 +1173,11 @@
       <c r="D9">
         <v>3.5649519999999997E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>3.1159800000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1158,8 +1190,11 @@
       <c r="D10">
         <v>0.19204336</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>4.2134440000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1172,8 +1207,11 @@
       <c r="D11">
         <v>0.37802058999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>0.27875223999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1186,8 +1224,11 @@
       <c r="D12">
         <v>0.38160752999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>0.22551091000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1200,8 +1241,11 @@
       <c r="D13">
         <v>0.1596167</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>2.4912739999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1214,8 +1258,11 @@
       <c r="D14">
         <v>0.11497628</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>4.8584139999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1228,8 +1275,11 @@
       <c r="D15">
         <v>7.6147580000000006E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0.13753603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1242,8 +1292,11 @@
       <c r="D16">
         <v>0.20697189999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>0.15909941999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1256,8 +1309,11 @@
       <c r="D17">
         <v>0.27425571999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0.30379219000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1270,8 +1326,11 @@
       <c r="D18">
         <v>9.2490310000000006E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0.12332132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1284,8 +1343,11 @@
       <c r="D19">
         <v>0.22740124</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0.10072613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1298,8 +1360,11 @@
       <c r="D20">
         <v>4.3287819999999998E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>9.0190019999999996E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1312,8 +1377,11 @@
       <c r="D21">
         <v>0.47597155000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>0.44335143999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1326,8 +1394,11 @@
       <c r="D22">
         <v>0.14034584999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>4.7063109999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1340,8 +1411,11 @@
       <c r="D23">
         <v>0.19039227</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>0.18573474000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1354,8 +1428,11 @@
       <c r="D24">
         <v>6.8850809999999998E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>3.963001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1368,8 +1445,11 @@
       <c r="D25">
         <v>8.4502359999999999E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>4.2813370000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1382,8 +1462,11 @@
       <c r="D26">
         <v>0.13308589000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>0.10323971999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1396,8 +1479,11 @@
       <c r="D27">
         <v>0.37404776000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0.30596814</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1410,8 +1496,11 @@
       <c r="D28">
         <v>0.19357666000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>2.214412E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1424,8 +1513,11 @@
       <c r="D29">
         <v>0.18291980999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>0.16423945000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1438,8 +1530,11 @@
       <c r="D30">
         <v>9.6744979999999994E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>7.7108599999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1452,8 +1547,11 @@
       <c r="D31">
         <v>0.25336164</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <v>0.10014577</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1466,8 +1564,11 @@
       <c r="D32">
         <v>0.27919735000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>7.8908629999999993E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1480,8 +1581,11 @@
       <c r="D33">
         <v>0.13525608</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <v>4.1088619999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1494,8 +1598,11 @@
       <c r="D34">
         <v>7.0136390000000007E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <v>0.19717251999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1508,8 +1615,11 @@
       <c r="D35">
         <v>0.13657134000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0.13356081</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1522,8 +1632,11 @@
       <c r="D36">
         <v>4.9982789999999999E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>4.1929370000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1536,8 +1649,11 @@
       <c r="D37">
         <v>0.20938536999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>2.3943519999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1550,8 +1666,11 @@
       <c r="D38">
         <v>0.30672310000000003</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0.36259408999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1564,8 +1683,11 @@
       <c r="D39">
         <v>4.6784600000000003E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <v>7.4387250000000002E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1578,8 +1700,11 @@
       <c r="D40">
         <v>0.26808493</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <v>0.31344179999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1592,8 +1717,11 @@
       <c r="D41">
         <v>0.16529511</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41">
+        <v>0.17916535</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1606,8 +1734,11 @@
       <c r="D42">
         <v>0.21884738000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>9.8110100000000006E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1620,8 +1751,11 @@
       <c r="D43">
         <v>0.25743946000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43">
+        <v>6.5496650000000003E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1634,8 +1768,11 @@
       <c r="D44">
         <v>0.21327113</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44">
+        <v>0.22303181999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1648,8 +1785,11 @@
       <c r="D45">
         <v>0.40292361999999998</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0.32765592999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1662,8 +1802,11 @@
       <c r="D46">
         <v>0.30711136</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46">
+        <v>6.1584979999999998E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1676,8 +1819,11 @@
       <c r="D47">
         <v>0.21461838</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47">
+        <v>8.5578260000000003E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1690,8 +1836,11 @@
       <c r="D48">
         <v>7.9205449999999997E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48">
+        <v>8.6918780000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1704,8 +1853,11 @@
       <c r="D49">
         <v>7.8246419999999997E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0.22280224000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1718,8 +1870,11 @@
       <c r="D50">
         <v>0.43988052999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50">
+        <v>0.12399664000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1732,8 +1887,11 @@
       <c r="D51">
         <v>0.21942052000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>4.7235680000000002E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1746,8 +1904,11 @@
       <c r="D52">
         <v>0.25541496000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0.32137046000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1760,8 +1921,11 @@
       <c r="D53">
         <v>0.57692308000000003</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53">
+        <v>8.1306799999999995E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1774,8 +1938,11 @@
       <c r="D54">
         <v>0.27763758999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54">
+        <v>0.19948036999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1788,8 +1955,11 @@
       <c r="D55">
         <v>0.34980496</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55">
+        <v>0.18930315</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1802,8 +1972,11 @@
       <c r="D56">
         <v>4.0328040000000002E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56">
+        <v>3.6667859999999997E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1816,8 +1989,11 @@
       <c r="D57">
         <v>9.7666260000000005E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>4.961161E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1830,8 +2006,11 @@
       <c r="D58">
         <v>0.32663188999999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58">
+        <v>0.36488459000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1844,8 +2023,11 @@
       <c r="D59">
         <v>0.26649107</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59">
+        <v>0.27809204999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1858,8 +2040,11 @@
       <c r="D60">
         <v>0.13227638999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60">
+        <v>0.13718404000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1872,8 +2057,11 @@
       <c r="D61">
         <v>5.6904999999999997E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61">
+        <v>4.1847229999999999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1886,8 +2074,11 @@
       <c r="D62">
         <v>0.40082907000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0.16834893000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1900,8 +2091,11 @@
       <c r="D63">
         <v>0.15220513999999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63">
+        <v>0.25445321999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1914,8 +2108,11 @@
       <c r="D64">
         <v>6.5094460000000007E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64">
+        <v>9.5061489999999998E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1928,8 +2125,11 @@
       <c r="D65">
         <v>4.4746229999999998E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65">
+        <v>0.1285618</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1942,8 +2142,11 @@
       <c r="D66">
         <v>7.7459639999999996E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66">
+        <v>0.20451385999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1956,8 +2159,11 @@
       <c r="D67">
         <v>9.8806000000000005E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67">
+        <v>0.10157136999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1970,8 +2176,11 @@
       <c r="D68">
         <v>0.11918246</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68">
+        <v>0.21577287000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1984,8 +2193,11 @@
       <c r="D69">
         <v>5.720285E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69">
+        <v>5.4969400000000002E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1998,8 +2210,11 @@
       <c r="D70">
         <v>0.20999171999999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>5.4396989999999999E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2012,8 +2227,11 @@
       <c r="D71">
         <v>0.32604502000000002</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71">
+        <v>9.2087710000000003E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2026,8 +2244,11 @@
       <c r="D72">
         <v>0.38496943</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72">
+        <v>3.6636149999999999E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2040,8 +2261,11 @@
       <c r="D73">
         <v>0.20800645000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73">
+        <v>7.9828700000000002E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2054,8 +2278,11 @@
       <c r="D74">
         <v>0.40938679</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74">
+        <v>8.6904460000000003E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2068,8 +2295,11 @@
       <c r="D75">
         <v>0.19057004999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75">
+        <v>9.4492099999999996E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2082,8 +2312,11 @@
       <c r="D76">
         <v>0.31796974</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>9.0408000000000002E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2096,8 +2329,11 @@
       <c r="D77">
         <v>0.23136259000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77">
+        <v>5.1916150000000001E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2110,8 +2346,11 @@
       <c r="D78">
         <v>0.13181523000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78">
+        <v>9.8411579999999999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2124,8 +2363,11 @@
       <c r="D79">
         <v>0.10972432</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <v>0.1056203</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2138,8 +2380,11 @@
       <c r="D80">
         <v>0.10623815</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80">
+        <v>0.19138706</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2152,8 +2397,11 @@
       <c r="D81">
         <v>0.12091004</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81">
+        <v>6.7291690000000001E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2166,8 +2414,11 @@
       <c r="D82">
         <v>0.22924622</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82">
+        <v>0.14370505</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2180,8 +2431,11 @@
       <c r="D83">
         <v>0.14517748999999999</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83">
+        <v>0.10884699</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2194,8 +2448,11 @@
       <c r="D84">
         <v>0.1715817</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>9.7497909999999993E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2208,8 +2465,11 @@
       <c r="D85">
         <v>0.30544765000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85">
+        <v>9.5983089999999993E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2222,8 +2482,11 @@
       <c r="D86">
         <v>3.7642589999999997E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86">
+        <v>4.5137690000000001E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2236,8 +2499,11 @@
       <c r="D87">
         <v>0.26605130999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87">
+        <v>0.19946758000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2250,8 +2516,11 @@
       <c r="D88">
         <v>6.2466929999999997E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88">
+        <v>6.3607269999999994E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2264,8 +2533,11 @@
       <c r="D89">
         <v>0.14727272</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89">
+        <v>4.9962069999999997E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2278,8 +2550,11 @@
       <c r="D90">
         <v>0.14326689000000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90">
+        <v>0.338028</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2292,8 +2567,11 @@
       <c r="D91">
         <v>0.35653286000000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91">
+        <v>0.54768163999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2306,8 +2584,11 @@
       <c r="D92">
         <v>0.31807070999999998</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92">
+        <v>0.27271814999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2320,8 +2601,11 @@
       <c r="D93">
         <v>0.25411565000000003</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93">
+        <v>0.26432729999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2334,8 +2618,11 @@
       <c r="D94">
         <v>0.12368030000000001</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94">
+        <v>1.221591E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2348,8 +2635,11 @@
       <c r="D95">
         <v>0.29117756</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95">
+        <v>9.6770419999999996E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2362,8 +2652,11 @@
       <c r="D96">
         <v>0.31029417999999998</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>6.2038099999999997E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2376,8 +2669,11 @@
       <c r="D97">
         <v>0.25253112999999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>1.8998350000000001E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2390,8 +2686,11 @@
       <c r="D98">
         <v>0.27649548000000002</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98">
+        <v>8.4702230000000003E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2404,8 +2703,11 @@
       <c r="D99">
         <v>0.12715684999999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>1.8733509999999998E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2418,8 +2720,11 @@
       <c r="D100">
         <v>0.60163513000000002</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>6.6069900000000001E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2431,6 +2736,9 @@
       </c>
       <c r="D101">
         <v>0.28949446000000001</v>
+      </c>
+      <c r="E101">
+        <v>1.358909E-2</v>
       </c>
     </row>
   </sheetData>
